--- a/config_7.13/game_activity_config.xlsx
+++ b/config_7.13/game_activity_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$75</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -634,7 +634,7 @@
     <t>祈福有礼</t>
   </si>
   <si>
-    <t>英雄榜单</t>
+    <t>阳光榜单</t>
   </si>
   <si>
     <t>英雄任务</t>
@@ -672,10 +672,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -731,7 +731,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,6 +775,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -751,8 +783,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,7 +814,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,24 +859,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,68 +868,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,7 +889,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,13 +910,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,25 +1024,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,43 +1060,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,91 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,28 +1131,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,6 +1180,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1193,30 +1223,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1230,10 +1236,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1242,139 +1248,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,6 +1399,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1402,7 +1411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1474,10 +1483,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1499,6 +1508,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,77 +1849,77 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="32.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="43.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="43.125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="7" customWidth="1"/>
     <col min="11" max="11" width="30.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="35.75" style="6" customWidth="1"/>
-    <col min="13" max="13" width="34.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="25.75" style="6" customWidth="1"/>
-    <col min="15" max="15" width="14.25" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="6"/>
+    <col min="12" max="12" width="35.75" style="7" customWidth="1"/>
+    <col min="13" max="13" width="34.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="25.75" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.25" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="111.75" customHeight="1" spans="1:15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1903,10 +1927,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1924,16 +1948,16 @@
       <c r="J2" s="2">
         <v>-1</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="36" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1941,10 +1965,10 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1956,7 +1980,7 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="2">
@@ -1965,13 +1989,13 @@
       <c r="J3" s="2">
         <v>-1</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="2">
@@ -1985,23 +2009,23 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="13">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="2">
         <v>9</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="2">
@@ -2010,10 +2034,10 @@
       <c r="J4" s="2">
         <v>-1</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -2022,7 +2046,7 @@
       <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2030,10 +2054,10 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2075,10 +2099,10 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2119,10 +2143,10 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2163,10 +2187,10 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2187,7 +2211,7 @@
       <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="23" t="s">
         <v>43</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -2204,10 +2228,10 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2248,10 +2272,10 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2292,16 +2316,16 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="2">
@@ -2310,26 +2334,26 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="36">
+      <c r="H11" s="16"/>
+      <c r="I11" s="37">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="37">
         <v>1615219199</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="15" t="s">
+      <c r="K11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="16" t="s">
         <v>57</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2337,16 +2361,16 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="18">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F12" s="4">
@@ -2355,7 +2379,7 @@
       <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="20" t="s">
         <v>60</v>
       </c>
       <c r="I12" s="4">
@@ -2364,19 +2388,19 @@
       <c r="J12" s="4">
         <v>1618243199</v>
       </c>
-      <c r="K12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="18" t="s">
+      <c r="K12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="19" t="s">
         <v>61</v>
       </c>
       <c r="N12" s="4">
         <v>1</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2384,42 +2408,42 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="12">
         <v>12</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="2">
         <v>4</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="36">
+      <c r="H13" s="16"/>
+      <c r="I13" s="37">
         <v>1612828800</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="37">
         <v>1613404799</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="15" t="s">
+      <c r="K13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="16" t="s">
         <v>63</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2427,16 +2451,16 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="13">
         <v>13</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="2">
@@ -2445,28 +2469,28 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="37">
         <v>1617667200</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="37">
         <v>1618243199</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="15" t="s">
+      <c r="K14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2474,16 +2498,16 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13">
         <v>14</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F15" s="2">
@@ -2492,28 +2516,28 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="37">
         <v>1617667200</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="37">
         <v>1618243199</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="15" t="s">
+      <c r="K15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="16" t="s">
         <v>70</v>
       </c>
       <c r="N15" s="2">
         <v>1</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2521,10 +2545,10 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2542,25 +2566,25 @@
       <c r="H16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="37">
         <v>1614643200</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="37">
         <v>1615219199</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="15" t="s">
+      <c r="K16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="16" t="s">
         <v>74</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2568,10 +2592,10 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="13">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2586,25 +2610,25 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="37">
         <v>1612828800</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="37">
         <v>1613404799</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="15" t="s">
+      <c r="K17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="16" t="s">
         <v>77</v>
       </c>
       <c r="N17" s="2">
         <v>1</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2612,10 +2636,10 @@
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="21">
+      <c r="B18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="22">
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2636,19 +2660,19 @@
       <c r="J18" s="4">
         <v>1618243199</v>
       </c>
-      <c r="K18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="18" t="s">
+      <c r="K18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="19" t="s">
         <v>80</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2656,10 +2680,10 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2674,25 +2698,25 @@
       <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="37">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="37">
         <v>1613404799</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="16" t="s">
         <v>84</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2700,10 +2724,10 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="13">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2721,19 +2745,19 @@
       <c r="J20" s="2">
         <v>1614009599</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="15" t="s">
+      <c r="K20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="16" t="s">
         <v>86</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2741,10 +2765,10 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2762,19 +2786,19 @@
       <c r="J21" s="2">
         <v>1614009599</v>
       </c>
-      <c r="K21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="15" t="s">
+      <c r="K21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="16" t="s">
         <v>61</v>
       </c>
       <c r="N21" s="2">
         <v>1</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2782,10 +2806,10 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2806,19 +2830,19 @@
       <c r="J22" s="2">
         <v>1614009599</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="15" t="s">
+      <c r="K22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="16" t="s">
         <v>90</v>
       </c>
       <c r="N22" s="2">
         <v>1</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2826,16 +2850,16 @@
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="21">
+      <c r="B23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="22">
         <v>22</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="4">
@@ -2844,7 +2868,7 @@
       <c r="G23" s="4">
         <v>0</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="19" t="s">
         <v>92</v>
       </c>
       <c r="I23" s="4">
@@ -2853,19 +2877,19 @@
       <c r="J23" s="4">
         <v>1617638399</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="18" t="s">
+      <c r="K23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="19" t="s">
         <v>57</v>
       </c>
       <c r="N23" s="4">
         <v>1</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2873,16 +2897,16 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="13">
         <v>23</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="2">
@@ -2891,26 +2915,26 @@
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="2">
         <v>1614038400</v>
       </c>
       <c r="J24" s="2">
         <v>1614614399</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="15" t="s">
+      <c r="K24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="16" t="s">
         <v>61</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2918,42 +2942,42 @@
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="21">
+      <c r="B25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="22">
         <v>24</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="6">
+      <c r="H25" s="20"/>
+      <c r="I25" s="7">
         <v>1621296000</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="7">
         <v>1621871999</v>
       </c>
-      <c r="K25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="18" t="s">
+      <c r="K25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="19" t="s">
         <v>95</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2961,13 +2985,13 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="13">
         <v>25</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2979,7 +3003,7 @@
       <c r="G26" s="2">
         <v>0</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="21" t="s">
         <v>66</v>
       </c>
       <c r="I26" s="2">
@@ -2988,19 +3012,19 @@
       <c r="J26" s="2">
         <v>1616428799</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="15" t="s">
+      <c r="K26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N26" s="2">
         <v>1</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3008,13 +3032,13 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="B27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="13">
         <v>26</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3026,7 +3050,7 @@
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="21" t="s">
         <v>69</v>
       </c>
       <c r="I27" s="2">
@@ -3035,19 +3059,19 @@
       <c r="J27" s="2">
         <v>1616428799</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="15" t="s">
+      <c r="K27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="16" t="s">
         <v>70</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="O27" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3055,10 +3079,10 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="B28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="13">
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3076,19 +3100,19 @@
       <c r="J28" s="2">
         <v>1614614399</v>
       </c>
-      <c r="K28" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="15" t="s">
+      <c r="K28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" s="16" t="s">
         <v>98</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3096,10 +3120,10 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="B29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="13">
         <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3117,7 +3141,7 @@
       <c r="J29" s="2">
         <v>-1</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="16" t="s">
         <v>21</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -3137,13 +3161,13 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="B30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="13">
         <v>29</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3155,7 +3179,7 @@
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="21" t="s">
         <v>105</v>
       </c>
       <c r="I30" s="2">
@@ -3164,19 +3188,19 @@
       <c r="J30" s="2">
         <v>1618243199</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="15" t="s">
+      <c r="K30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="16" t="s">
         <v>106</v>
       </c>
       <c r="N30" s="2">
         <v>1</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="O30" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3184,13 +3208,13 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="B31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="13">
         <v>30</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3202,7 +3226,7 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="21" t="s">
         <v>108</v>
       </c>
       <c r="I31" s="2">
@@ -3211,19 +3235,19 @@
       <c r="J31" s="2">
         <v>1618243199</v>
       </c>
-      <c r="K31" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="15" t="s">
+      <c r="K31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="16" t="s">
         <v>109</v>
       </c>
       <c r="N31" s="2">
         <v>1</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="O31" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3231,13 +3255,13 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="12">
+      <c r="B32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="13">
         <v>31</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -3249,7 +3273,7 @@
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="21" t="s">
         <v>111</v>
       </c>
       <c r="I32" s="2">
@@ -3258,19 +3282,19 @@
       <c r="J32" s="2">
         <v>1618243199</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="15" t="s">
+      <c r="K32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="M32" s="16" t="s">
         <v>112</v>
       </c>
       <c r="N32" s="2">
         <v>1</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="O32" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3278,13 +3302,13 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="B33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="13">
         <v>32</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3296,7 +3320,7 @@
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="21" t="s">
         <v>114</v>
       </c>
       <c r="I33" s="2">
@@ -3305,66 +3329,66 @@
       <c r="J33" s="2">
         <v>1618243199</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="15" t="s">
+      <c r="K33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" s="16" t="s">
         <v>115</v>
       </c>
       <c r="N33" s="2">
         <v>1</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="O33" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" ht="15.75" spans="1:15">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="B34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="9">
         <v>33</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="23" t="s">
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="7">
         <v>1621296000</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="7">
         <v>1621871999</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="15" t="s">
+      <c r="K34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="N34" s="6">
-        <v>1</v>
-      </c>
-      <c r="O34" s="6" t="s">
+      <c r="N34" s="7">
+        <v>1</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3372,10 +3396,10 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="25">
+      <c r="B35" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="26">
         <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -3387,10 +3411,10 @@
       <c r="F35" s="5">
         <v>1</v>
       </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="26" t="s">
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="27" t="s">
         <v>120</v>
       </c>
       <c r="I35" s="5">
@@ -3399,13 +3423,13 @@
       <c r="J35" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K35" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="37" t="s">
+      <c r="K35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="37" t="s">
+      <c r="M35" s="38" t="s">
         <v>106</v>
       </c>
       <c r="N35" s="5">
@@ -3419,10 +3443,10 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="25">
+      <c r="B36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="26">
         <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -3434,10 +3458,10 @@
       <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="26" t="s">
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="27" t="s">
         <v>122</v>
       </c>
       <c r="I36" s="5">
@@ -3446,13 +3470,13 @@
       <c r="J36" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K36" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="37" t="s">
+      <c r="K36" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="37" t="s">
+      <c r="M36" s="38" t="s">
         <v>109</v>
       </c>
       <c r="N36" s="5">
@@ -3466,10 +3490,10 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="25">
+      <c r="B37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="26">
         <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3481,10 +3505,10 @@
       <c r="F37" s="5">
         <v>1</v>
       </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="26" t="s">
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="27" t="s">
         <v>123</v>
       </c>
       <c r="I37" s="5">
@@ -3493,13 +3517,13 @@
       <c r="J37" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K37" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="37" t="s">
+      <c r="K37" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M37" s="37" t="s">
+      <c r="M37" s="38" t="s">
         <v>112</v>
       </c>
       <c r="N37" s="5">
@@ -3513,10 +3537,10 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="25">
+      <c r="B38" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="26">
         <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -3528,10 +3552,10 @@
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="26" t="s">
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="27" t="s">
         <v>124</v>
       </c>
       <c r="I38" s="5">
@@ -3540,13 +3564,13 @@
       <c r="J38" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K38" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="37" t="s">
+      <c r="K38" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M38" s="37" t="s">
+      <c r="M38" s="38" t="s">
         <v>115</v>
       </c>
       <c r="N38" s="5">
@@ -3560,10 +3584,10 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="25">
+      <c r="B39" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="26">
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -3575,10 +3599,10 @@
       <c r="F39" s="5">
         <v>2</v>
       </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="27" t="s">
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28" t="s">
         <v>92</v>
       </c>
       <c r="I39" s="5">
@@ -3587,7 +3611,7 @@
       <c r="J39" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K39" s="37" t="s">
+      <c r="K39" s="38" t="s">
         <v>21</v>
       </c>
       <c r="L39" s="5" t="s">
@@ -3607,10 +3631,10 @@
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="25">
+      <c r="B40" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="26">
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -3622,10 +3646,10 @@
       <c r="F40" s="5">
         <v>3</v>
       </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="27" t="s">
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="28" t="s">
         <v>130</v>
       </c>
       <c r="I40" s="5">
@@ -3634,7 +3658,7 @@
       <c r="J40" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K40" s="37" t="s">
+      <c r="K40" s="38" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="5" t="s">
@@ -3654,10 +3678,10 @@
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="25">
+      <c r="B41" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="26">
         <v>40</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3666,10 +3690,10 @@
       <c r="F41" s="5">
         <v>2</v>
       </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="28" t="s">
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="29" t="s">
         <v>133</v>
       </c>
       <c r="I41" s="5">
@@ -3678,7 +3702,7 @@
       <c r="J41" s="5">
         <v>1620662399</v>
       </c>
-      <c r="K41" s="37" t="s">
+      <c r="K41" s="38" t="s">
         <v>21</v>
       </c>
       <c r="L41" s="5" t="s">
@@ -3695,25 +3719,25 @@
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="6">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="B42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="9">
         <v>41</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="7">
         <v>-20</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="7">
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -3725,145 +3749,145 @@
       <c r="J42" s="5">
         <v>1618847999</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N42" s="6">
-        <v>1</v>
-      </c>
-      <c r="O42" s="6" t="s">
+      <c r="N42" s="7">
+        <v>1</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:15">
-      <c r="A43" s="6">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="9">
         <v>42</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="7">
         <v>4</v>
       </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="20" t="s">
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="7">
         <v>1619481600</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="7">
         <v>1620662399</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M43" s="15" t="s">
+      <c r="M43" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="N43" s="6">
-        <v>1</v>
-      </c>
-      <c r="O43" s="6" t="s">
+      <c r="N43" s="7">
+        <v>1</v>
+      </c>
+      <c r="O43" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:15">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="9">
         <v>43</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="7">
         <v>3</v>
       </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="29" t="s">
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="7">
         <v>1619481600</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="7">
         <v>1620662399</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M44" s="15" t="s">
+      <c r="M44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N44" s="6">
-        <v>1</v>
-      </c>
-      <c r="O44" s="6" t="s">
+      <c r="N44" s="7">
+        <v>1</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="1:15">
-      <c r="A45" s="6">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="B45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="9">
         <v>43</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="30" t="s">
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="39">
         <v>1620691200</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="7">
         <v>1621267199</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -3883,34 +3907,34 @@
       </c>
     </row>
     <row r="46" ht="15.75" spans="1:15">
-      <c r="A46" s="6">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="B46" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="9">
         <v>44</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="7">
         <v>2</v>
       </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="30" t="s">
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="39">
         <v>1620691200</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="7">
         <v>1621267199</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -3919,7 +3943,7 @@
       <c r="L46" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="M46" s="30" t="s">
+      <c r="M46" s="31" t="s">
         <v>145</v>
       </c>
       <c r="N46" s="5">
@@ -3930,43 +3954,43 @@
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:15">
-      <c r="A47" s="6">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B47" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="9">
         <v>45</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="7">
         <v>2</v>
       </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="30" t="s">
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="7">
         <v>1621296000</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="7">
         <v>1621871999</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="M47" s="30" t="s">
+      <c r="M47" s="31" t="s">
         <v>135</v>
       </c>
       <c r="N47" s="5">
@@ -3977,43 +4001,43 @@
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:15">
-      <c r="A48" s="6">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="9">
         <v>46</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="7">
         <v>4</v>
       </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="31" t="s">
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="39">
         <v>1620691200</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="7">
         <v>1621267199</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M48" s="40" t="s">
+      <c r="M48" s="41" t="s">
         <v>148</v>
       </c>
       <c r="N48" s="5">
@@ -4024,43 +4048,43 @@
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:15">
-      <c r="A49" s="6">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="9">
         <v>47</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="20" t="s">
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="39">
         <v>1620691200</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="7">
         <v>1621267199</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M49" s="40" t="s">
+      <c r="M49" s="41" t="s">
         <v>149</v>
       </c>
       <c r="N49" s="5">
@@ -4071,43 +4095,43 @@
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:15">
-      <c r="A50" s="6">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="B50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="9">
         <v>48</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="7">
         <v>4</v>
       </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="31" t="s">
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50" s="39">
         <v>1620691200</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="7">
         <v>1621267199</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M50" s="40" t="s">
+      <c r="M50" s="41" t="s">
         <v>152</v>
       </c>
       <c r="N50" s="5">
@@ -4118,34 +4142,34 @@
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:15">
-      <c r="A51" s="6">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="B51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="9">
         <v>50</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="7">
         <v>3</v>
       </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="32" t="s">
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="7">
         <v>1621296000</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="7">
         <v>1621871999</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -4154,10 +4178,10 @@
       <c r="L51" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M51" s="28" t="s">
+      <c r="M51" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="7">
         <v>1</v>
       </c>
       <c r="O51" s="5" t="s">
@@ -4165,41 +4189,41 @@
       </c>
     </row>
     <row r="52" ht="15.75" spans="1:15">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="9">
         <v>51</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="6">
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="7">
         <v>1624320000</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="7">
         <v>1624895999</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="37" t="s">
+      <c r="L52" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M52" s="40" t="s">
+      <c r="M52" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="7">
         <v>1</v>
       </c>
       <c r="O52" s="5" t="s">
@@ -4207,46 +4231,46 @@
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:15">
-      <c r="A53" s="6">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="8">
+      <c r="B53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="9">
         <v>52</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="7">
         <v>2</v>
       </c>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="20" t="s">
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="7">
         <v>1624320000</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="7">
         <v>1624895999</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="37" t="s">
+      <c r="L53" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="41" t="s">
+      <c r="M53" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="7">
         <v>1</v>
       </c>
       <c r="O53" s="5" t="s">
@@ -4254,34 +4278,34 @@
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:15">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="8">
-        <v>53</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="9">
+        <v>53</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="7">
         <v>3</v>
       </c>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
-      <c r="H54" s="32" t="s">
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="7">
         <v>1624320000</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="7">
         <v>1624895999</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -4290,10 +4314,10 @@
       <c r="L54" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M54" s="28" t="s">
+      <c r="M54" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="7">
         <v>1</v>
       </c>
       <c r="O54" s="5" t="s">
@@ -4301,46 +4325,46 @@
       </c>
     </row>
     <row r="55" ht="15.75" spans="1:15">
-      <c r="A55" s="6">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="8">
+      <c r="B55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="9">
         <v>54</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="7">
         <v>2</v>
       </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="30" t="s">
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="7">
         <v>1624320000</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="7">
         <v>1624895999</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L55" s="39" t="s">
+      <c r="L55" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="M55" s="30" t="s">
+      <c r="M55" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="7">
         <v>1</v>
       </c>
       <c r="O55" s="5" t="s">
@@ -4348,46 +4372,46 @@
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:15">
-      <c r="A56" s="6">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="8">
+      <c r="B56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="9">
         <v>55</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="7">
         <v>4</v>
       </c>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="20" t="s">
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="7">
         <v>1624320000</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="7">
         <v>1624895999</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M56" s="40" t="s">
+      <c r="M56" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="7">
         <v>1</v>
       </c>
       <c r="O56" s="5" t="s">
@@ -4395,46 +4419,46 @@
       </c>
     </row>
     <row r="57" ht="15.75" spans="1:15">
-      <c r="A57" s="6">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="8">
+      <c r="B57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="9">
         <v>56</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="7">
         <v>4</v>
       </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="30" t="s">
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="7">
         <v>1624320000</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="7">
         <v>1624895999</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M57" s="40" t="s">
+      <c r="M57" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57" s="7">
         <v>1</v>
       </c>
       <c r="O57" s="5" t="s">
@@ -4442,46 +4466,46 @@
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:15">
-      <c r="A58" s="6">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="B58" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="9">
         <v>57</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
-      <c r="H58" s="20" t="s">
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="7">
         <v>1622505600</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="7">
         <v>1623081599</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L58" s="41" t="s">
+      <c r="L58" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="M58" s="41" t="s">
+      <c r="M58" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="7">
         <v>1</v>
       </c>
       <c r="O58" s="5" t="s">
@@ -4489,34 +4513,34 @@
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:15">
-      <c r="A59" s="6">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="B59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="9">
         <v>58</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="7">
         <v>2</v>
       </c>
-      <c r="G59" s="6">
-        <v>0</v>
-      </c>
-      <c r="H59" s="20" t="s">
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="7">
         <v>1622505600</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="7">
         <v>1623081599</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -4525,10 +4549,10 @@
       <c r="L59" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M59" s="28" t="s">
+      <c r="M59" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="7">
         <v>1</v>
       </c>
       <c r="O59" s="5" t="s">
@@ -4536,34 +4560,34 @@
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:15">
-      <c r="A60" s="6">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="8">
+      <c r="B60" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="9">
         <v>59</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="7">
         <v>3</v>
       </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="31" t="s">
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="7">
         <v>1622505600</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="7">
         <v>1623081599</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -4572,10 +4596,10 @@
       <c r="L60" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M60" s="15" t="s">
+      <c r="M60" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="7">
         <v>1</v>
       </c>
       <c r="O60" s="5" t="s">
@@ -4583,46 +4607,46 @@
       </c>
     </row>
     <row r="61" ht="15.75" spans="1:15">
-      <c r="A61" s="6">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="8">
+      <c r="B61" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="9">
         <v>60</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="7">
         <v>2</v>
       </c>
-      <c r="G61" s="6">
-        <v>0</v>
-      </c>
-      <c r="H61" s="30" t="s">
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="7">
         <v>1622505600</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="7">
         <v>1623081599</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="M61" s="30" t="s">
+      <c r="M61" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="7">
         <v>1</v>
       </c>
       <c r="O61" s="5" t="s">
@@ -4630,40 +4654,40 @@
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:15">
-      <c r="A62" s="6">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="B62" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="9">
         <v>61</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
         <v>1623110400</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="7">
         <v>1623686399</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="6" t="s">
+      <c r="L62" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M62" s="18" t="s">
+      <c r="M62" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N62" s="7">
         <v>1</v>
       </c>
       <c r="O62" s="5" t="s">
@@ -4671,46 +4695,46 @@
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:15">
-      <c r="A63" s="6">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="8">
+      <c r="B63" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="9">
         <v>62</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="7">
         <v>2</v>
       </c>
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="20" t="s">
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="7">
         <v>1623110400</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="7">
         <v>1623686399</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L63" s="6" t="s">
+      <c r="L63" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M63" s="6" t="s">
+      <c r="M63" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N63" s="7">
         <v>1</v>
       </c>
       <c r="O63" s="5" t="s">
@@ -4718,34 +4742,34 @@
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:15">
-      <c r="A64" s="6">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="9">
         <v>63</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="7">
         <v>3</v>
       </c>
-      <c r="G64" s="6">
-        <v>0</v>
-      </c>
-      <c r="H64" s="20" t="s">
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="7">
         <v>1623110400</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="7">
         <v>1623686399</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -4754,10 +4778,10 @@
       <c r="L64" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M64" s="28" t="s">
+      <c r="M64" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N64" s="6">
+      <c r="N64" s="7">
         <v>1</v>
       </c>
       <c r="O64" s="5" t="s">
@@ -4765,60 +4789,60 @@
       </c>
     </row>
     <row r="65" ht="15.75" spans="1:15">
-      <c r="A65" s="6">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="8">
+      <c r="B65" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="9">
         <v>64</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="7">
         <v>2</v>
       </c>
-      <c r="G65" s="6">
-        <v>0</v>
-      </c>
-      <c r="H65" s="30" t="s">
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="7">
         <v>1623110400</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="7">
         <v>1624895999</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="39" t="s">
+      <c r="L65" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="M65" s="30" t="s">
+      <c r="M65" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="N65" s="6">
+      <c r="N65" s="7">
         <v>1</v>
       </c>
       <c r="O65" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:15">
+    <row r="66" s="6" customFormat="1" ht="14.25" spans="1:15">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="8">
+      <c r="B66" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="44">
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
@@ -4831,41 +4855,41 @@
         <v>1</v>
       </c>
       <c r="G66" s="6">
-        <v>0</v>
-      </c>
-      <c r="H66" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="45" t="s">
         <v>66</v>
       </c>
       <c r="I66" s="6">
-        <v>1623715200</v>
+        <v>1626134400</v>
       </c>
       <c r="J66" s="6">
-        <v>1624291199</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="5" t="s">
+        <v>1626710399</v>
+      </c>
+      <c r="K66" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M66" s="28" t="s">
+      <c r="M66" s="46" t="s">
         <v>61</v>
       </c>
       <c r="N66" s="6">
         <v>1</v>
       </c>
-      <c r="O66" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" spans="1:15">
+      <c r="O66" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" s="6" customFormat="1" ht="15.75" spans="1:15">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="8">
+      <c r="B67" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="44">
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -4878,203 +4902,203 @@
         <v>2</v>
       </c>
       <c r="G67" s="6">
-        <v>0</v>
-      </c>
-      <c r="H67" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="45" t="s">
         <v>66</v>
       </c>
       <c r="I67" s="6">
+        <v>1626134400</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1626710399</v>
+      </c>
+      <c r="K67" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="M67" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" spans="1:15">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="9">
+        <v>67</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="7">
+        <v>3</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" s="7">
         <v>1623715200</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J68" s="7">
         <v>1624291199</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M67" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="N67" s="6">
-        <v>1</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" spans="1:15">
-      <c r="A68" s="6">
-        <v>67</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="8">
-        <v>67</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="K68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M68" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="N68" s="7">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:15">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="9">
+        <v>68</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" s="7">
+        <v>3</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1623715200</v>
+      </c>
+      <c r="J69" s="7">
+        <v>1624291199</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M69" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="N69" s="7">
+        <v>1</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" spans="1:15">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="9">
+        <v>69</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="6">
-        <v>3</v>
-      </c>
-      <c r="G68" s="6">
-        <v>0</v>
-      </c>
-      <c r="H68" s="20" t="s">
+      <c r="F70" s="7">
+        <v>1</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I68" s="6">
-        <v>1623715200</v>
-      </c>
-      <c r="J68" s="6">
-        <v>1624291199</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M68" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="N68" s="6">
-        <v>1</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" spans="1:15">
-      <c r="A69" s="6">
-        <v>68</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="8">
-        <v>68</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" s="6">
-        <v>3</v>
-      </c>
-      <c r="G69" s="6">
-        <v>0</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I69" s="6">
-        <v>1623715200</v>
-      </c>
-      <c r="J69" s="6">
-        <v>1624291199</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M69" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="N69" s="6">
-        <v>1</v>
-      </c>
-      <c r="O69" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" spans="1:15">
-      <c r="A70" s="6">
-        <v>69</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="8">
-        <v>69</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="I70" s="7">
+        <v>1624924800</v>
+      </c>
+      <c r="J70" s="7">
+        <v>1625500799</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="M70" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N70" s="7">
+        <v>1</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" spans="1:15">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="9">
+        <v>70</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="6">
-        <v>1</v>
-      </c>
-      <c r="G70" s="6">
-        <v>1</v>
-      </c>
-      <c r="H70" s="20" t="s">
+      <c r="F71" s="7">
+        <v>2</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I71" s="7">
         <v>1624924800</v>
       </c>
-      <c r="J70" s="6">
-        <v>1625500799</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="M70" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="N70" s="6">
-        <v>1</v>
-      </c>
-      <c r="O70" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" spans="1:15">
-      <c r="A71" s="6">
-        <v>70</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="8">
-        <v>70</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="6">
-        <v>2</v>
-      </c>
-      <c r="G71" s="6">
-        <v>1</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I71" s="6">
-        <v>1624924800</v>
-      </c>
-      <c r="J71" s="6">
+      <c r="J71" s="7">
         <v>1625500799</v>
       </c>
       <c r="K71" s="1" t="s">
@@ -5083,10 +5107,10 @@
       <c r="L71" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M71" s="28" t="s">
+      <c r="M71" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N71" s="6">
+      <c r="N71" s="7">
         <v>1</v>
       </c>
       <c r="O71" s="5" t="s">
@@ -5094,46 +5118,46 @@
       </c>
     </row>
     <row r="72" ht="15.75" spans="1:15">
-      <c r="A72" s="6">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="8">
+      <c r="B72" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="9">
         <v>71</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="6">
-        <v>1</v>
-      </c>
-      <c r="G72" s="6">
-        <v>1</v>
-      </c>
-      <c r="H72" s="30" t="s">
+      <c r="F72" s="7">
+        <v>1</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="7">
         <v>1624924800</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="7">
         <v>1627315199</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="6" t="s">
+      <c r="L72" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M72" s="40" t="s">
+      <c r="M72" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="N72" s="6">
+      <c r="N72" s="7">
         <v>1</v>
       </c>
       <c r="O72" s="5" t="s">
@@ -5141,46 +5165,46 @@
       </c>
     </row>
     <row r="73" ht="15.75" spans="1:15">
-      <c r="A73" s="6">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" s="8">
+      <c r="B73" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="9">
         <v>72</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="7">
         <v>2</v>
       </c>
-      <c r="G73" s="6">
-        <v>1</v>
-      </c>
-      <c r="H73" s="30" t="s">
+      <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="7">
         <v>1624924800</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="7">
         <v>1627315199</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="39" t="s">
+      <c r="L73" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="M73" s="30" t="s">
+      <c r="M73" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="N73" s="6">
+      <c r="N73" s="7">
         <v>1</v>
       </c>
       <c r="O73" s="5" t="s">
@@ -5188,46 +5212,46 @@
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:15">
-      <c r="A74" s="6">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="8">
+      <c r="B74" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="9">
         <v>73</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F74" s="6">
-        <v>1</v>
-      </c>
-      <c r="G74" s="6">
-        <v>1</v>
-      </c>
-      <c r="H74" s="20" t="s">
+      <c r="F74" s="7">
+        <v>1</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="7">
         <v>1625529600</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="7">
         <v>1626105599</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L74" s="6" t="s">
+      <c r="L74" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M74" s="6" t="s">
+      <c r="M74" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="N74" s="6">
+      <c r="N74" s="7">
         <v>1</v>
       </c>
       <c r="O74" s="5" t="s">
@@ -5235,34 +5259,34 @@
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:15">
-      <c r="A75" s="6">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="8">
+      <c r="B75" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="9">
         <v>74</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="7">
         <v>2</v>
       </c>
-      <c r="G75" s="6">
-        <v>1</v>
-      </c>
-      <c r="H75" s="20" t="s">
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="7">
         <v>1625529600</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="7">
         <v>1626105599</v>
       </c>
       <c r="K75" s="1" t="s">
@@ -5271,10 +5295,10 @@
       <c r="L75" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M75" s="28" t="s">
+      <c r="M75" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N75" s="7">
         <v>1</v>
       </c>
       <c r="O75" s="5" t="s">
@@ -5282,7 +5306,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O73">
+  <autoFilter ref="A1:O75">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
